--- a/biology/Botanique/Panicum_capillare/Panicum_capillare.xlsx
+++ b/biology/Botanique/Panicum_capillare/Panicum_capillare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum capillare (le millet capillaire, panic capillaire, panic à petites graines) est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Amérique du Nord.
 C'est une plante herbacée annuelle, cespiteuse, aux tiges dressées ou géniculées pouvant atteindre 20 à 80 cm de haut. C'est, en Amérique du Nord, une mauvaise herbe des cultures dont une population résistante à l'atrazine a été signalée en 1981 au Canada. Elle a été introduite et s'est naturalisée en Europe, où on l'a importée comme plante ornementale.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GrassBase[2], l'aire de répartition de Panicum capillare s'étend en Europe (centrale, orientale et méridionale), en Afrique (Macaronésie), en Asie tempérée (Extrême-Orient russe, Caucase et Asie occidentale) et en Asie tropicale (Inde, en Australasie (Australie et Nouvelle-Zélande), en Océanie (sud-ouest du pacifique), en Amérique du Nord (Canada, États-Unis et Mexique) et en Amérique du Sud (Caraïbes  et sud de l'Amérique du Sud).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GrassBase, l'aire de répartition de Panicum capillare s'étend en Europe (centrale, orientale et méridionale), en Afrique (Macaronésie), en Asie tempérée (Extrême-Orient russe, Caucase et Asie occidentale) et en Asie tropicale (Inde, en Australasie (Australie et Nouvelle-Zélande), en Océanie (sud-ouest du pacifique), en Amérique du Nord (Canada, États-Unis et Mexique) et en Amérique du Sud (Caraïbes  et sud de l'Amérique du Sud).
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (9 septembre 2016)[3]  :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 septembre 2016)  :
 Chasea capillaris (L.) Nieuwl.
 Leptoloma barbipulvinata (Nash ex Rydb.) Smyth
 Leptoloma capillaris (L.) Smyth
@@ -564,8 +583,43 @@
 Panicum capillare var. vulgare Scribn.
 Panicum elegantulum Suksd., nom. illeg.
 Panicum riparium H.Scholz
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (9 septembre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Panicum_capillare</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panicum_capillare</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (9 septembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Panicum capillare subsp. barbipulvinatum (Nash) Tzvelev
 sous-espèce Panicum capillare subsp. capillare
 sous-espèce Panicum capillare subsp. hillmanii (Chase) Freckmann &amp; Lelong
